--- a/601668_中国建筑/中国建筑.xlsx
+++ b/601668_中国建筑/中国建筑.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/601668_中国建筑/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="5820" windowWidth="25600" windowHeight="14780" activeTab="3"/>
+    <workbookView xWindow="555" yWindow="5820" windowWidth="25605" windowHeight="14775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +14,20 @@
     <sheet name="应收" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1021,12 +1016,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现利比为30%，现金流占比太低，分析主要原因，近9年累积净利润117亿，累积经营活动现金流净额只有35亿，差值82亿
-近9年的差值主要为：资产减值11亿+折旧7亿+无形资产摊销+1亿+财务费用1亿+应付增加了91亿-递延所得税增加3.8亿-应收增加了165亿-投资损失27亿=84.8亿约等于82亿
+    <t>投资性房地产折旧</t>
+    <rPh sb="0" eb="1">
+      <t>tou'zi'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang'di'chan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhe'jiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受限资金的减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现利比为50%，现金流占比太低，分析主要原因，近9年累积净利润2985亿，累积经营活动现金流净额只有1501亿，差值1484亿
+近9年的差值主要为：资产减值375亿+折旧443亿+无形资产摊销+28亿+财务费用665亿+应付增加了7078亿-存货增加3815-递延所得税增加119亿-应收增加了5635亿-投资收益323亿-受限资金增加148亿=1415亿约等于1484亿
 可以看到，差值的主要原因是：
-1. 应收165亿，应付91亿，应收-应付 74亿
-2. 投资损失27亿
-3. 资产减值+折旧18亿
+1. 应收5635亿，应付7078亿，应收-应付 1443亿
+2. 存货增加3815
+3. 财务费用665亿
 总结：当前财报暂时未看出大问题，典型的第三方外包项目型公司</t>
     <rPh sb="3" eb="4">
       <t>wei</t>
@@ -1202,29 +1214,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投资性房地产折旧</t>
-    <rPh sb="0" eb="1">
-      <t>tou'zi'xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>fang'di'chan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhe'jiu</t>
-    </rPh>
+    <t>现金流折扣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1609,24 +1612,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1703,7 +1706,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1748,7 +1751,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1775,7 +1778,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1802,7 +1805,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -1910,7 +1913,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -1937,7 +1940,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -1964,12 +1967,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2049,7 +2052,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2094,7 +2097,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2123,7 +2126,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2152,7 +2155,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2181,7 +2184,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2210,7 +2213,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2239,7 +2242,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2268,7 +2271,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2297,7 +2300,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2326,7 +2329,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2355,7 +2358,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2367,19 +2370,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2527,7 +2530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2554,7 +2557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2581,7 +2584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2608,7 +2611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2635,7 +2638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2662,7 +2665,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2689,7 +2692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2716,7 +2719,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2743,7 +2746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2755,13 +2758,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2828,7 +2831,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2866,7 +2869,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2890,7 +2893,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2914,7 +2917,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2938,7 +2941,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2962,7 +2965,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2986,7 +2989,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3010,7 +3013,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3034,7 +3037,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3058,7 +3061,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3082,7 +3085,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3091,7 +3094,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="15" customHeight="1">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3221,7 +3224,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3252,7 +3255,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3283,7 +3286,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3314,7 +3317,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3345,7 +3348,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3376,7 +3379,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3407,7 +3410,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3438,7 +3441,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3469,7 +3472,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3500,7 +3503,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3510,12 +3513,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3593,7 +3596,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3637,7 +3640,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3680,7 +3683,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3723,7 +3726,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3766,7 +3769,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3809,7 +3812,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3852,7 +3855,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3895,7 +3898,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -3938,7 +3941,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3954,7 +3957,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3970,22 +3973,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4119,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4145,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4171,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4197,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4223,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4249,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4275,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4301,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4321,13 +4324,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4346,12 +4349,12 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4382,7 +4385,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4402,7 +4405,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -4422,7 +4425,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4442,7 +4445,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -4462,7 +4465,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4477,7 +4480,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4492,7 +4495,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4507,7 +4510,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4522,7 +4525,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4537,7 +4540,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4552,7 +4555,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4567,7 +4570,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4582,7 +4585,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4597,7 +4600,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4612,7 +4615,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4627,7 +4630,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4642,7 +4645,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4657,7 +4660,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4672,7 +4675,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4687,7 +4690,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4702,7 +4705,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4717,7 +4720,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4732,7 +4735,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4747,7 +4750,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4762,7 +4765,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4777,7 +4780,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4802,26 +4805,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1"/>
+    <row r="2" spans="1:11" ht="20.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4856,40 +4860,40 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="20.25">
       <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="9">
-        <v>260294585.96000001</v>
+        <v>9237293000</v>
       </c>
       <c r="D3" s="9">
-        <v>377983123.51999998</v>
+        <v>13644276000</v>
       </c>
       <c r="E3" s="9">
-        <v>700155145.04999995</v>
+        <v>15735236000</v>
       </c>
       <c r="F3" s="9">
-        <v>1130921915.51</v>
+        <v>20398512000</v>
       </c>
       <c r="G3" s="9">
-        <v>1142678484.6099999</v>
+        <v>22569967000</v>
       </c>
       <c r="H3" s="9">
-        <v>1372301211.8699999</v>
+        <v>26061898000</v>
       </c>
       <c r="I3" s="9">
-        <v>1825199447.95</v>
+        <v>29870104000</v>
       </c>
       <c r="J3" s="9">
-        <v>2378726820.2199998</v>
+        <v>32941799000</v>
       </c>
       <c r="K3" s="9">
-        <v>2529426468.6100001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38241324000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4899,47 +4903,47 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:K4" si="0">(D3-C3)/C3</f>
-        <v>0.4521359409991163</v>
+        <v>0.47708598179141876</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.85234498971738637</v>
+        <v>0.15324814596245342</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0.61524474040569654</v>
+        <v>0.29635882169164796</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>1.0395562185827982E-2</v>
+        <v>0.10645163725667833</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>0.20095130025868213</v>
+        <v>0.15471582213655874</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>0.33002830002813105</v>
+        <v>0.14612159099080196</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" si="0"/>
-        <v>0.30326952645734268</v>
+        <v>0.10283509558587409</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
-        <v>6.3353070688488167E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.16087539724226962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="2">
         <f>SUM(D4:K4)/8</f>
-        <v>0.35346542884258397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.19971156158221287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="16" t="s">
         <v>110</v>
       </c>
@@ -4955,29 +4959,35 @@
       <c r="E7" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F7" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="17">
-        <f>K3*0.3</f>
-        <v>758827940.58300006</v>
+        <f>K3*F8</f>
+        <v>19120662000</v>
       </c>
       <c r="B8" s="16">
         <v>0.05</v>
       </c>
       <c r="C8" s="16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D8" s="16">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="16">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="16"/>
       <c r="B10" s="18">
         <v>0.18</v>
@@ -4997,7 +5007,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
@@ -5021,70 +5031,70 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="19">
         <f>A8*(1+D8)</f>
-        <v>872652131.67044997</v>
+        <v>21415141440.000004</v>
       </c>
       <c r="C12" s="19">
         <f>B12*(1+D8)</f>
-        <v>1003549951.4210174</v>
+        <v>23984958412.800007</v>
       </c>
       <c r="D12" s="19">
         <f>C12*(1+D8)</f>
-        <v>1154082444.1341698</v>
+        <v>26863153422.33601</v>
       </c>
       <c r="E12" s="19">
         <f>D12*(1+D8)</f>
-        <v>1327194810.7542951</v>
+        <v>30086731833.016335</v>
       </c>
       <c r="F12" s="19">
         <f>E12*(1+D8)</f>
-        <v>1526274032.3674393</v>
+        <v>33697139652.978298</v>
       </c>
       <c r="G12" s="19">
         <f>F12*C8</f>
-        <v>22894110485.511589</v>
+        <v>202182837917.86978</v>
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B13" s="17">
         <f>B12/(1+B8)</f>
-        <v>831097268.25757134</v>
+        <v>20395372800.000004</v>
       </c>
       <c r="C13" s="17">
         <f>C12/(1+B8)^2</f>
-        <v>910249389.04400671</v>
+        <v>21755064320.000004</v>
       </c>
       <c r="D13" s="17">
         <f>D12/(1+B8)^3</f>
-        <v>996939807.04819751</v>
+        <v>23205401941.33334</v>
       </c>
       <c r="E13" s="17">
         <f>E12/(1+B8)^4</f>
-        <v>1091886455.3385019</v>
+        <v>24752428737.422234</v>
       </c>
       <c r="F13" s="17">
         <f>F12/(1+B8)^5</f>
-        <v>1195875641.5612164</v>
+        <v>26402590653.250381</v>
       </c>
       <c r="G13" s="17">
         <f>G12/(1+B8)^4</f>
-        <v>18835041354.589157</v>
+        <v>166336321115.47742</v>
       </c>
       <c r="H13" s="17">
         <f>SUM(B13:G13)</f>
-        <v>23861089915.83865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>282847179567.4834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -5096,85 +5106,85 @@
       </c>
       <c r="H14" s="17">
         <f>H13*E8</f>
-        <v>16702762941.087053</v>
+        <v>197993025697.23837</v>
       </c>
       <c r="J14">
         <v>2018</v>
       </c>
       <c r="K14" s="9">
-        <v>2529426468.6100001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38241324000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="J15">
         <f>J14-1</f>
         <v>2017</v>
       </c>
       <c r="K15" s="9">
-        <v>2378726820.2199998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32941799000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="J16">
         <f>J15-1</f>
         <v>2016</v>
       </c>
       <c r="K16" s="9">
-        <v>1825199447.95</v>
-      </c>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+        <v>29870104000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11">
       <c r="J17">
-        <f t="shared" ref="J17:J22" si="1">J16-1</f>
+        <f t="shared" ref="J17:J21" si="1">J16-1</f>
         <v>2015</v>
       </c>
       <c r="K17" s="9">
-        <v>1372301211.8699999</v>
-      </c>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+        <v>26061898000</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11">
       <c r="J18">
         <f>J17-1</f>
         <v>2014</v>
       </c>
       <c r="K18" s="9">
-        <v>1142678484.6099999</v>
-      </c>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+        <v>22569967000</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
       <c r="J19">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
       <c r="K19" s="9">
-        <v>1130921915.51</v>
-      </c>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+        <v>20398512000</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
       <c r="J20">
         <f>J19-1</f>
         <v>2012</v>
       </c>
       <c r="K20" s="9">
-        <v>700155145.04999995</v>
-      </c>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+        <v>15735236000</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
       <c r="J21">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="K21" s="9">
-        <v>377983123.51999998</v>
-      </c>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+        <v>13644276000</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f>J21-1</f>
         <v>2010</v>
       </c>
       <c r="K22" s="9">
-        <v>260294585.96000001</v>
+        <v>9237293000</v>
       </c>
     </row>
   </sheetData>
@@ -5185,49 +5195,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD18"/>
+  <dimension ref="A2:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="22" width="17.83203125" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="30" max="30" width="18.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="22" width="17.875" customWidth="1"/>
+    <col min="23" max="24" width="18.875" customWidth="1"/>
+    <col min="25" max="25" width="17.875" customWidth="1"/>
+    <col min="26" max="26" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.625" customWidth="1"/>
+    <col min="31" max="31" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="J2" t="s">
         <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5265,7 +5277,7 @@
         <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N3" t="s">
         <v>84</v>
@@ -5298,16 +5310,19 @@
         <v>91</v>
       </c>
       <c r="X3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y3" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5332,7 +5347,7 @@
         <v>0.18629182911714862</v>
       </c>
       <c r="H4" s="9">
-        <f>D4+J4+L4+N4+O4+P4+S4+T4+U4+W4+X4+Y4+Q4+R4+V4+Z4+M4</f>
+        <f>D4+J4+L4+N4+O4+P4+S4+T4+U4+W4+Y4+Z4+Q4+R4+V4+AA4+M4+X4</f>
         <v>10311290000</v>
       </c>
       <c r="I4" s="9">
@@ -5381,20 +5396,23 @@
         <v>-96125732000</v>
       </c>
       <c r="X4" s="9">
+        <v>280759000</v>
+      </c>
+      <c r="Y4" s="9">
         <v>-108365569000</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z4" s="9">
         <v>135881219000</v>
       </c>
-      <c r="Z4" s="9">
-        <v>469687000</v>
-      </c>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9">
+        <v>188928000</v>
+      </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5420,12 +5438,12 @@
         <v>-0.93157217890715527</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H13" si="2">D5+J5+L5+N5+O5+P5+S5+T5+U5+W5+X5+Y5+Q5+R5+V5+Z5+M5</f>
-        <v>-31495082000</v>
+        <f t="shared" ref="H5:H13" si="2">D5+J5+L5+N5+O5+P5+S5+T5+U5+W5+Y5+Z5+Q5+R5+V5+AA5+M5+X5</f>
+        <v>-43456932000</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5:I13" si="3">H5-E5</f>
-        <v>11961850000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
         <v>7049491000</v>
@@ -5469,731 +5487,771 @@
         <v>-55545031000</v>
       </c>
       <c r="X5" s="9">
+        <v>-5931135000</v>
+      </c>
+      <c r="Y5" s="9">
         <v>-79759851000</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="9">
         <v>35498214000</v>
       </c>
-      <c r="Z5" s="9">
-        <v>5980925000</v>
-      </c>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>-49790000</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
       </c>
       <c r="B6" s="9">
-        <v>1825199447.95</v>
+        <v>29870104000</v>
       </c>
       <c r="C6" s="9">
-        <v>1719172124.0799999</v>
+        <v>29091680000</v>
       </c>
       <c r="D6" s="9">
-        <v>1810152288.3099999</v>
+        <v>41172239000</v>
       </c>
       <c r="E6" s="9">
-        <v>470737105.33999997</v>
+        <v>107047858000</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.9497389447188771</v>
+        <v>0.70658484227685547</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="1"/>
-        <v>0.26005386860543706</v>
+        <v>2.6000008889484976</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="2"/>
-        <v>470737105.33999968</v>
+        <v>107047858000</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>129145009.23999999</v>
+        <v>5365548000</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>7.1344831080799712E-2</v>
+        <v>0.13031955828294886</v>
       </c>
       <c r="L6" s="9">
-        <v>103583804.51000001</v>
-      </c>
-      <c r="M6" s="9"/>
+        <v>5316726000</v>
+      </c>
+      <c r="M6" s="9">
+        <v>830757000</v>
+      </c>
       <c r="N6" s="9">
-        <v>14591618.01</v>
+        <v>504485000</v>
       </c>
       <c r="O6" s="9">
-        <v>647458.78</v>
+        <v>141408000</v>
       </c>
       <c r="P6" s="9">
-        <v>346741.78</v>
+        <v>-220379000</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="R6" s="9">
-        <v>-2851456</v>
+        <v>-746456000</v>
       </c>
       <c r="S6" s="9">
-        <v>-38305746.509999998</v>
+        <v>9964590000</v>
       </c>
       <c r="T6" s="9">
-        <v>-6642772.4900000002</v>
+        <v>-6131509000</v>
       </c>
       <c r="U6" s="9">
-        <v>-22743032.210000001</v>
+        <v>-1304428000</v>
       </c>
       <c r="V6" s="9">
-        <v>8344998</v>
+        <v>-1438532000</v>
       </c>
       <c r="W6" s="9">
-        <v>-704562266.90999997</v>
+        <v>932712000</v>
       </c>
       <c r="X6" s="9">
-        <v>-2127794090.74</v>
+        <v>-1092179000</v>
       </c>
       <c r="Y6" s="9">
-        <v>1304156224.3199999</v>
+        <v>-87890627000</v>
       </c>
       <c r="Z6" s="9">
-        <v>2668327.25</v>
-      </c>
-      <c r="AA6" s="9"/>
+        <v>141846683000</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>-203180000</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7">
-        <f t="shared" ref="A7:A12" si="5">A6-1</f>
+        <f t="shared" ref="A7:A11" si="5">A6-1</f>
         <v>2015</v>
       </c>
       <c r="B7" s="9">
-        <v>1372301211.8699999</v>
+        <v>26061898000</v>
       </c>
       <c r="C7" s="9">
-        <v>1350391817.72</v>
+        <v>25108195000</v>
       </c>
       <c r="D7" s="9">
-        <v>1381123509.9000001</v>
+        <v>35942808000</v>
       </c>
       <c r="E7" s="9">
-        <v>200763824.86000001</v>
+        <v>54603641000</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.97774877340099353</v>
+        <v>0.69855963952510336</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0.1453626872766334</v>
+        <v>1.5191812782128764</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>200763824.86000031</v>
+        <v>54603641000</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="3"/>
-        <v>2.9802322387695312E-7</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>192281999.66999999</v>
+        <v>3756309000</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>0.13922143696179795</v>
+        <v>0.10450794495521885</v>
       </c>
       <c r="L7" s="9">
-        <v>84781587.469999999</v>
-      </c>
-      <c r="M7" s="9"/>
+        <v>5155938000</v>
+      </c>
+      <c r="M7" s="9">
+        <v>601757000</v>
+      </c>
       <c r="N7" s="9">
-        <v>6315165.0099999998</v>
+        <v>295637000</v>
       </c>
       <c r="O7" s="9">
-        <v>743779.8</v>
+        <v>397624000</v>
       </c>
       <c r="P7" s="9">
-        <v>-174927.99</v>
+        <v>-223785000</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9">
-        <v>5228415.6500000004</v>
+        <v>607581000</v>
       </c>
       <c r="S7" s="9">
-        <v>-61512310.289999999</v>
+        <v>9391893000</v>
       </c>
       <c r="T7" s="9">
-        <v>-14013463.970000001</v>
+        <v>-1855143000</v>
       </c>
       <c r="U7" s="9">
-        <v>-54248640.740000002</v>
+        <v>-1183348000</v>
       </c>
       <c r="V7" s="9">
-        <v>-9073852.6199999992</v>
+        <v>111868000</v>
       </c>
       <c r="W7" s="9">
-        <v>-256116142.56999999</v>
+        <v>5023633000</v>
       </c>
       <c r="X7" s="9">
-        <v>-2942876320.5</v>
+        <v>-860143000</v>
       </c>
       <c r="Y7" s="9">
-        <v>1862052036.3800001</v>
+        <v>-93542419000</v>
       </c>
       <c r="Z7" s="9">
-        <v>6252989.6600000001</v>
-      </c>
-      <c r="AA7" s="9"/>
+        <v>91172072000</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>-188641000</v>
+      </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="9"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
       </c>
       <c r="B8" s="9">
-        <v>1142678484.6099999</v>
+        <v>22569967000</v>
       </c>
       <c r="C8" s="9">
-        <v>95314944.459999993</v>
+        <v>20933504000</v>
       </c>
       <c r="D8" s="9">
-        <v>1144264528.4000001</v>
+        <v>33176814000</v>
       </c>
       <c r="E8" s="9">
-        <v>-17080921.460000001</v>
+        <v>24906341000</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3297998054066028E-2</v>
+        <v>0.63096788015871563</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4927423717209759E-2</v>
+        <v>0.75071527362452584</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>-17080921.460000355</v>
+        <v>24906341000</v>
       </c>
       <c r="I8" s="9">
-        <f>H8-E8</f>
-        <v>-3.5390257835388184E-7</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>79357586.120000005</v>
+        <v>4524263000</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>6.9352482883450015E-2</v>
+        <v>0.13636821787649653</v>
       </c>
       <c r="L8" s="9">
-        <v>73180404.730000004</v>
-      </c>
-      <c r="M8" s="9"/>
+        <v>4477790000</v>
+      </c>
+      <c r="M8" s="9">
+        <v>401374000</v>
+      </c>
       <c r="N8" s="9">
-        <v>5835105.4800000004</v>
+        <v>265013000</v>
       </c>
       <c r="O8" s="9">
-        <v>743779.79</v>
+        <v>346484000</v>
       </c>
       <c r="P8" s="9">
-        <v>77974.710000000006</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1961.16</v>
-      </c>
+        <v>-213734000</v>
+      </c>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9">
-        <v>-894483.21</v>
+        <v>222120000</v>
       </c>
       <c r="S8" s="9">
-        <v>9800256.6099999994</v>
+        <v>7977923000</v>
       </c>
       <c r="T8" s="9">
-        <v>-7557419.6399999997</v>
+        <v>-2321021000</v>
       </c>
       <c r="U8" s="9">
-        <v>14550062.539999999</v>
+        <v>-1326150000</v>
       </c>
       <c r="V8" s="9">
-        <v>19253342.859999999</v>
+        <v>-336071000</v>
       </c>
       <c r="W8" s="9">
-        <v>-341408227.17000002</v>
+        <v>-29466146000</v>
       </c>
       <c r="X8" s="9">
-        <v>-1394725650.4400001</v>
+        <v>-2042210000</v>
       </c>
       <c r="Y8" s="9">
-        <v>379706154.11000001</v>
+        <v>-69008311000</v>
       </c>
       <c r="Z8" s="9">
-        <v>733702.49</v>
-      </c>
-      <c r="AA8" s="9"/>
+        <v>78324578000</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>-96375000</v>
+      </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="9"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
       </c>
       <c r="B9" s="9">
-        <v>1130921915.51</v>
+        <v>20398512000</v>
       </c>
       <c r="C9" s="9">
-        <v>1114568260.74</v>
+        <v>18632553000</v>
       </c>
       <c r="D9" s="7">
-        <v>1130138728.3299999</v>
+        <v>29333465000</v>
       </c>
       <c r="E9" s="9">
-        <v>356475220.70999998</v>
+        <v>2678228000</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.98622251658165161</v>
+        <v>0.63519781928251573</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="1"/>
-        <v>0.31542607272362178</v>
+        <v>9.1302817447580772E-2</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="2"/>
-        <v>356475220.70999986</v>
+        <v>2678228000</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="9">
-        <v>98559602.459999993</v>
+        <v>1666428000</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>8.7210180475489937E-2</v>
+        <v>5.68097904560542E-2</v>
       </c>
       <c r="L9" s="9">
-        <v>40771661.840000004</v>
-      </c>
-      <c r="M9" s="9"/>
+        <v>3616069000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>277980000</v>
+      </c>
       <c r="N9" s="9">
-        <v>5652308.1600000001</v>
-      </c>
-      <c r="O9" s="9"/>
+        <v>313768000</v>
+      </c>
+      <c r="O9" s="9">
+        <v>395197000</v>
+      </c>
       <c r="P9" s="9">
-        <v>-94715.38</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>7068.71</v>
-      </c>
+        <v>-140655000</v>
+      </c>
+      <c r="Q9" s="9"/>
       <c r="R9" s="9">
-        <v>-3973172.57</v>
+        <v>-32504000</v>
       </c>
       <c r="S9" s="9">
-        <v>13140484.83</v>
+        <v>6994305000</v>
       </c>
       <c r="T9" s="9">
-        <v>-7753381.1100000003</v>
+        <v>-5414980000</v>
       </c>
       <c r="U9" s="9">
-        <v>-73653563.709999993</v>
+        <v>-535788000</v>
       </c>
       <c r="V9" s="9">
-        <v>-1889610.16</v>
+        <v>340624000</v>
       </c>
       <c r="W9" s="9">
-        <v>-279232980.05000001</v>
+        <v>-60096048000</v>
       </c>
       <c r="X9" s="9">
-        <v>-1347014151.79</v>
+        <v>-1143000000</v>
       </c>
       <c r="Y9" s="9">
-        <v>780768382.42999995</v>
+        <v>-46430132000</v>
       </c>
       <c r="Z9" s="9">
-        <v>1048558.72</v>
-      </c>
-      <c r="AA9" s="9"/>
+        <v>73518086000</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>15413000</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
       </c>
       <c r="B10" s="9">
-        <v>700155145.04999995</v>
+        <v>15735236000</v>
       </c>
       <c r="C10" s="9">
-        <v>685819391.22000003</v>
+        <v>14818553000</v>
       </c>
       <c r="D10" s="9">
-        <v>696651234.15999997</v>
+        <v>22776698000</v>
       </c>
       <c r="E10" s="9">
-        <v>481913096.22000003</v>
+        <v>2393300000</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.98445155565817577</v>
+        <v>0.65060146119512141</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>0.69175661017966272</v>
+        <v>0.1050766884646756</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>481913096.22000003</v>
+        <v>2393300000</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>37947498.520000003</v>
+        <v>2612599000</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>5.4471300213450272E-2</v>
+        <v>0.11470490586475704</v>
       </c>
       <c r="L10" s="9">
-        <v>30712112.989999998</v>
-      </c>
-      <c r="M10" s="9"/>
+        <v>3194692000</v>
+      </c>
+      <c r="M10" s="9">
+        <v>174633000</v>
+      </c>
       <c r="N10" s="9">
-        <v>5594314.6500000004</v>
-      </c>
-      <c r="O10" s="9"/>
+        <v>217987000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>235582000</v>
+      </c>
       <c r="P10" s="9">
-        <v>161660.29</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>10554.48</v>
-      </c>
+        <v>-133055000</v>
+      </c>
+      <c r="Q10" s="9"/>
       <c r="R10" s="9">
-        <v>1835136.12</v>
+        <v>-200979000</v>
       </c>
       <c r="S10" s="9">
-        <v>2345972.77</v>
+        <v>5384820000</v>
       </c>
       <c r="T10" s="9">
-        <v>1027741.59</v>
+        <v>-2995696000</v>
       </c>
       <c r="U10" s="9">
-        <v>-7885473.6699999999</v>
+        <v>-1294063000</v>
       </c>
       <c r="V10" s="9">
-        <v>3226722.55</v>
+        <v>-29743000</v>
       </c>
       <c r="W10" s="9">
-        <v>-122459236.76000001</v>
+        <v>-43695902000</v>
       </c>
       <c r="X10" s="9">
-        <v>-473740078.20999998</v>
+        <v>-2720553000</v>
       </c>
       <c r="Y10" s="9">
-        <v>300440204.31</v>
+        <v>-32214722000</v>
       </c>
       <c r="Z10" s="9">
-        <v>6044732.4299999997</v>
-      </c>
-      <c r="AA10" s="9"/>
+        <v>53071183000</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>-1990181000</v>
+      </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-    </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" ht="15.75">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
       </c>
       <c r="B11" s="9">
-        <v>377983123.51999998</v>
+        <v>13644276000</v>
       </c>
       <c r="C11" s="9">
-        <v>366704384.82999998</v>
+        <v>13005516000</v>
       </c>
       <c r="D11" s="9">
-        <v>375560849.13</v>
+        <v>19445925000</v>
       </c>
       <c r="E11" s="9">
-        <v>74219234.049999997</v>
+        <v>-6731557000</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.97641803100478575</v>
+        <v>0.66880418390999652</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>0.19762239387287434</v>
+        <v>-0.34616800177929308</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>74219234.049999982</v>
+        <v>-6731557000</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <v>26723209</v>
+        <v>796267000</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>7.1155470709753851E-2</v>
+        <v>4.0947756406547901E-2</v>
       </c>
       <c r="L11" s="9">
-        <v>21124733.309999999</v>
-      </c>
-      <c r="M11" s="9"/>
+        <v>2652995000</v>
+      </c>
+      <c r="M11" s="9">
+        <v>180926000</v>
+      </c>
       <c r="N11" s="9">
-        <v>4946596.43</v>
-      </c>
-      <c r="O11" s="9"/>
+        <v>151185000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>53959000</v>
+      </c>
       <c r="P11" s="9">
-        <v>258214.11</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>1484.38</v>
-      </c>
+        <v>-9938000</v>
+      </c>
+      <c r="Q11" s="9"/>
       <c r="R11" s="9">
-        <v>927288.22</v>
+        <v>217568000</v>
       </c>
       <c r="S11" s="15">
-        <v>964759.15</v>
+        <v>3797604000</v>
       </c>
       <c r="T11" s="9">
-        <v>4041974.58</v>
+        <v>-1785140000</v>
       </c>
       <c r="U11" s="9">
-        <v>-3862567.15</v>
+        <v>-1327646000</v>
       </c>
       <c r="V11" s="9">
-        <v>534147.91</v>
+        <v>164017000</v>
       </c>
       <c r="W11" s="9">
-        <v>-246069295.34999999</v>
+        <v>-58328100000</v>
       </c>
       <c r="X11" s="9">
-        <v>-350625396.79000002</v>
+        <v>-1283033000</v>
       </c>
       <c r="Y11" s="9">
-        <v>215155549.16</v>
+        <v>-31117636000</v>
       </c>
       <c r="Z11" s="9">
-        <v>24537687.960000001</v>
-      </c>
-      <c r="AA11" s="9"/>
+        <v>58922396000</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>737094000</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f>A11-1</f>
         <v>2010</v>
       </c>
       <c r="B12" s="9">
-        <v>260294585.96000001</v>
+        <v>9237293000</v>
       </c>
       <c r="C12" s="9">
-        <v>253337502.41</v>
+        <v>8659353000</v>
       </c>
       <c r="D12" s="9">
-        <v>259631611.78999999</v>
+        <v>14715210000</v>
       </c>
       <c r="E12" s="9">
-        <v>123564361.27</v>
+        <v>-1644875000</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0.97575753839601431</v>
+        <v>0.58846275384449154</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>0.47592186644029921</v>
+        <v>-0.11178059980115812</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="2"/>
-        <v>123564361.26999997</v>
+        <v>-1644875000</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J12" s="9">
-        <v>11339203.859999999</v>
+        <v>1304457000</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="4"/>
-        <v>4.367420354487335E-2</v>
+        <v>8.864684907656771E-2</v>
       </c>
       <c r="L12" s="9">
-        <v>14528799.33</v>
-      </c>
-      <c r="M12" s="9"/>
+        <v>2182787000</v>
+      </c>
+      <c r="M12" s="9">
+        <v>281059000</v>
+      </c>
       <c r="N12" s="9">
-        <v>4372512.25</v>
-      </c>
-      <c r="O12" s="9"/>
+        <v>79400000</v>
+      </c>
+      <c r="O12" s="9">
+        <v>39808000</v>
+      </c>
       <c r="P12" s="9">
-        <v>172138.23</v>
+        <v>-58362000</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="9">
-        <v>-271728.21000000002</v>
+        <v>25069000</v>
       </c>
       <c r="S12" s="9">
-        <v>234046.07999999999</v>
+        <v>2093713000</v>
       </c>
       <c r="T12" s="9">
-        <v>3317.31</v>
+        <v>-1555704000</v>
       </c>
       <c r="U12" s="9">
-        <v>-2501141.31</v>
+        <v>-739997000</v>
       </c>
       <c r="V12" s="9">
-        <v>3309697.51</v>
+        <v>-952880000</v>
       </c>
       <c r="W12" s="9">
-        <v>-140493478.87</v>
-      </c>
-      <c r="X12" s="9">
-        <v>-257639402.69999999</v>
-      </c>
+        <v>-44274562000</v>
+      </c>
+      <c r="X12" s="9"/>
       <c r="Y12" s="9">
-        <v>205580163.41999999</v>
+        <v>-15156404000</v>
       </c>
       <c r="Z12" s="9">
-        <v>25298622.579999998</v>
-      </c>
-      <c r="AA12" s="9"/>
+        <v>39572767000</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>798764000</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="9">
         <f>SUM(B4:B12)</f>
-        <v>77992656914.470001</v>
+        <v>208700409000</v>
       </c>
       <c r="C13" s="9">
         <f>SUM(C4:C12)</f>
-        <v>74945056425.460022</v>
+        <v>199609102000</v>
       </c>
       <c r="D13" s="9">
         <f>SUM(D4:D12)</f>
-        <v>108796745750.01999</v>
+        <v>298562382000</v>
       </c>
       <c r="E13" s="9">
         <f>SUM(E4:E12)</f>
-        <v>-31455050079.009998</v>
+        <v>150107294000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.68885384308883391</v>
+        <v>0.66856748885397088</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.28911756378525888</v>
+        <v>0.5027669359899466</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>-19493200079.010067</v>
+        <v>150107294000</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>11961849999.999931</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" ref="J13:Y13" si="6">SUM(J4:J12)</f>
-        <v>18090744108.869999</v>
+        <f>SUM(J4:J12)</f>
+        <v>37541261000</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>0.16628019509367242</v>
+        <v>0.12574009072583028</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="6"/>
-        <v>12718688104.179998</v>
+        <f>SUM(L4:L12)</f>
+        <v>38947002000</v>
       </c>
       <c r="M13" s="9">
         <f>SUM(M4:M12)</f>
-        <v>2706971000</v>
+        <v>5455457000</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="6"/>
-        <v>1060537619.9899999</v>
+        <f>SUM(N4:N12)</f>
+        <v>2840705000</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="6"/>
-        <v>336823018.37</v>
+        <f>SUM(O4:O12)</f>
+        <v>1944750000</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="6"/>
-        <v>-219854914.25</v>
+        <f>SUM(P4:P12)</f>
+        <v>-1220510000</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="6"/>
-        <v>21068.73</v>
+        <f>SUM(Q4:Q12)</f>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>SUM(R4:R12)</f>
-        <v>829830999.99999988</v>
+        <v>922230000</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="6"/>
-        <v>20869389462.640007</v>
+        <f>SUM(S4:S12)</f>
+        <v>66547570000</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="6"/>
-        <v>-10285028003.73</v>
+        <f>SUM(T4:T12)</f>
+        <v>-32313327000</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="6"/>
-        <v>-4350765356.25</v>
+        <f>SUM(U4:U12)</f>
+        <v>-11911841000</v>
       </c>
       <c r="V13" s="9">
         <f>SUM(V4:V12)</f>
-        <v>-2210851553.9499993</v>
+        <v>-4375274000</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="6"/>
-        <v>-153761104627.68002</v>
+        <f>SUM(W4:W12)</f>
+        <v>-381575176000</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="6"/>
-        <v>-197019835091.17001</v>
+        <f>SUM(X4:X12)</f>
+        <v>-14791494000</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="6"/>
-        <v>176427291714.13</v>
+        <f>SUM(Y4:Y12)</f>
+        <v>-563485671000</v>
       </c>
       <c r="Z13" s="9">
         <f>SUM(Z4:Z12)</f>
-        <v>6517196621.0900002</v>
-      </c>
-      <c r="AA13" s="9"/>
+        <v>707807198000</v>
+      </c>
+      <c r="AA13" s="9">
+        <f>SUM(AA4:AA12)</f>
+        <v>-787968000</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6222,8 +6280,9 @@
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6251,10 +6310,11 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-    </row>
-    <row r="16" spans="1:30" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" ht="170.1" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -6284,8 +6344,9 @@
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="9"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6315,8 +6376,9 @@
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="9"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="12"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6346,6 +6408,7 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6353,6 +6416,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6364,7 +6428,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6379,16 +6443,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6426,7 +6490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6466,7 +6530,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6507,7 +6571,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6521,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6535,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6549,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6563,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6577,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6603,7 +6667,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6623,7 +6687,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>

--- a/601668_中国建筑/中国建筑.xlsx
+++ b/601668_中国建筑/中国建筑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="5820" windowWidth="25600" windowHeight="14780" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1211,6 +1211,22 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>zhe'jiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受限资金的减少</t>
+    <rPh sb="0" eb="1">
+      <t>shou'xian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'jin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jian'shao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5185,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AD18"/>
+  <dimension ref="A2:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5197,37 +5213,37 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
-    <col min="12" max="13" width="15" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="15" max="22" width="17.83203125" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.6640625" customWidth="1"/>
-    <col min="30" max="30" width="18.1640625" customWidth="1"/>
+    <col min="23" max="24" width="18.83203125" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" customWidth="1"/>
+    <col min="26" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>82</v>
       </c>
       <c r="L2" t="s">
         <v>82</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>82</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5298,16 +5314,19 @@
         <v>91</v>
       </c>
       <c r="X3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" t="s">
         <v>92</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5324,15 +5343,15 @@
         <v>10311290000</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F13" si="0">C4/D4</f>
+        <f t="shared" ref="F4:F17" si="0">C4/D4</f>
         <v>0.67814710696618985</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G13" si="1">E4/D4</f>
+        <f t="shared" ref="G4:G17" si="1">E4/D4</f>
         <v>0.18629182911714862</v>
       </c>
       <c r="H4" s="9">
-        <f>D4+J4+L4+N4+O4+P4+S4+T4+U4+W4+X4+Y4+Q4+R4+V4+Z4+M4</f>
+        <f>D4+J4+L4+N4+O4+P4+S4+T4+U4+W4+Y4+Z4+Q4+R4+V4+AA4+M4+X4</f>
         <v>10311290000</v>
       </c>
       <c r="I4" s="9">
@@ -5381,20 +5400,23 @@
         <v>-96125732000</v>
       </c>
       <c r="X4" s="9">
+        <v>280759000</v>
+      </c>
+      <c r="Y4" s="9">
         <v>-108365569000</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Z4" s="9">
         <v>135881219000</v>
       </c>
-      <c r="Z4" s="9">
-        <v>469687000</v>
-      </c>
-      <c r="AA4" s="9"/>
+      <c r="AA4" s="9">
+        <v>188928000</v>
+      </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5420,18 +5442,18 @@
         <v>-0.93157217890715527</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H13" si="2">D5+J5+L5+N5+O5+P5+S5+T5+U5+W5+X5+Y5+Q5+R5+V5+Z5+M5</f>
-        <v>-31495082000</v>
+        <f t="shared" ref="H5:H17" si="2">D5+J5+L5+N5+O5+P5+S5+T5+U5+W5+Y5+Z5+Q5+R5+V5+AA5+M5+X5</f>
+        <v>-43456932000</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I13" si="3">H5-E5</f>
-        <v>11961850000</v>
+        <f t="shared" ref="I5:I17" si="3">H5-E5</f>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
         <v>7049491000</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K5:K13" si="4">J5/D5</f>
+        <f t="shared" ref="K5:K17" si="4">J5/D5</f>
         <v>0.15111765577598485</v>
       </c>
       <c r="L5" s="9">
@@ -5469,770 +5491,653 @@
         <v>-55545031000</v>
       </c>
       <c r="X5" s="9">
+        <v>-5931135000</v>
+      </c>
+      <c r="Y5" s="9">
         <v>-79759851000</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Z5" s="9">
         <v>35498214000</v>
       </c>
-      <c r="Z5" s="9">
-        <v>5980925000</v>
-      </c>
-      <c r="AA5" s="9"/>
+      <c r="AA5" s="9">
+        <v>-49790000</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <f>A5-1</f>
-        <v>2016</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1825199447.95</v>
-      </c>
-      <c r="C6" s="9">
-        <v>1719172124.0799999</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1810152288.3099999</v>
-      </c>
-      <c r="E6" s="9">
-        <v>470737105.33999997</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.9497389447188771</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.26005386860543706</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="2"/>
-        <v>470737105.33999968</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>129145009.23999999</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="4"/>
-        <v>7.1344831080799712E-2</v>
-      </c>
-      <c r="L6" s="9">
-        <v>103583804.51000001</v>
-      </c>
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9">
-        <v>14591618.01</v>
-      </c>
-      <c r="O6" s="9">
-        <v>647458.78</v>
-      </c>
-      <c r="P6" s="9">
-        <v>346741.78</v>
-      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9">
-        <v>-2851456</v>
-      </c>
-      <c r="S6" s="9">
-        <v>-38305746.509999998</v>
-      </c>
-      <c r="T6" s="9">
-        <v>-6642772.4900000002</v>
-      </c>
-      <c r="U6" s="9">
-        <v>-22743032.210000001</v>
-      </c>
-      <c r="V6" s="9">
-        <v>8344998</v>
-      </c>
-      <c r="W6" s="9">
-        <v>-704562266.90999997</v>
-      </c>
-      <c r="X6" s="9">
-        <v>-2127794090.74</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>1304156224.3199999</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>2668327.25</v>
-      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" ref="A7:A12" si="5">A6-1</f>
-        <v>2015</v>
+        <f>A5-1</f>
+        <v>2016</v>
       </c>
       <c r="B7" s="9">
-        <v>1372301211.8699999</v>
+        <v>1825199447.95</v>
       </c>
       <c r="C7" s="9">
-        <v>1350391817.72</v>
+        <v>1719172124.0799999</v>
       </c>
       <c r="D7" s="9">
-        <v>1381123509.9000001</v>
+        <v>1810152288.3099999</v>
       </c>
       <c r="E7" s="9">
-        <v>200763824.86000001</v>
+        <v>470737105.33999997</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0.97774877340099353</v>
+        <v>0.9497389447188771</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="1"/>
-        <v>0.1453626872766334</v>
+        <v>0.26005386860543706</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="2"/>
-        <v>200763824.86000031</v>
+        <v>470737105.33999968</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="3"/>
-        <v>2.9802322387695312E-7</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>192281999.66999999</v>
+        <v>129145009.23999999</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>0.13922143696179795</v>
+        <v>7.1344831080799712E-2</v>
       </c>
       <c r="L7" s="9">
-        <v>84781587.469999999</v>
+        <v>103583804.51000001</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9">
-        <v>6315165.0099999998</v>
+        <v>14591618.01</v>
       </c>
       <c r="O7" s="9">
-        <v>743779.8</v>
+        <v>647458.78</v>
       </c>
       <c r="P7" s="9">
-        <v>-174927.99</v>
+        <v>346741.78</v>
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9">
-        <v>5228415.6500000004</v>
+        <v>-2851456</v>
       </c>
       <c r="S7" s="9">
-        <v>-61512310.289999999</v>
+        <v>-38305746.509999998</v>
       </c>
       <c r="T7" s="9">
-        <v>-14013463.970000001</v>
+        <v>-6642772.4900000002</v>
       </c>
       <c r="U7" s="9">
-        <v>-54248640.740000002</v>
+        <v>-22743032.210000001</v>
       </c>
       <c r="V7" s="9">
-        <v>-9073852.6199999992</v>
+        <v>8344998</v>
       </c>
       <c r="W7" s="9">
-        <v>-256116142.56999999</v>
-      </c>
-      <c r="X7" s="9">
-        <v>-2942876320.5</v>
-      </c>
+        <v>-704562266.90999997</v>
+      </c>
+      <c r="X7" s="9"/>
       <c r="Y7" s="9">
-        <v>1862052036.3800001</v>
+        <v>-2127794090.74</v>
       </c>
       <c r="Z7" s="9">
-        <v>6252989.6600000001</v>
-      </c>
-      <c r="AA7" s="9"/>
+        <v>1304156224.3199999</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>2668327.25</v>
+      </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="9"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>A7-1</f>
-        <v>2014</v>
+        <f t="shared" ref="A8:A14" si="5">A7-1</f>
+        <v>2015</v>
       </c>
       <c r="B8" s="9">
-        <v>1142678484.6099999</v>
+        <v>1372301211.8699999</v>
       </c>
       <c r="C8" s="9">
-        <v>95314944.459999993</v>
+        <v>1350391817.72</v>
       </c>
       <c r="D8" s="9">
-        <v>1144264528.4000001</v>
+        <v>1381123509.9000001</v>
       </c>
       <c r="E8" s="9">
-        <v>-17080921.460000001</v>
+        <v>200763824.86000001</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.3297998054066028E-2</v>
+        <v>0.97774877340099353</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="1"/>
-        <v>-1.4927423717209759E-2</v>
+        <v>0.1453626872766334</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>-17080921.460000355</v>
+        <v>200763824.86000031</v>
       </c>
       <c r="I8" s="9">
-        <f>H8-E8</f>
-        <v>-3.5390257835388184E-7</v>
+        <f t="shared" si="3"/>
+        <v>2.9802322387695312E-7</v>
       </c>
       <c r="J8" s="9">
-        <v>79357586.120000005</v>
+        <v>192281999.66999999</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>6.9352482883450015E-2</v>
+        <v>0.13922143696179795</v>
       </c>
       <c r="L8" s="9">
-        <v>73180404.730000004</v>
+        <v>84781587.469999999</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9">
-        <v>5835105.4800000004</v>
+        <v>6315165.0099999998</v>
       </c>
       <c r="O8" s="9">
-        <v>743779.79</v>
+        <v>743779.8</v>
       </c>
       <c r="P8" s="9">
-        <v>77974.710000000006</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>1961.16</v>
-      </c>
+        <v>-174927.99</v>
+      </c>
+      <c r="Q8" s="9"/>
       <c r="R8" s="9">
-        <v>-894483.21</v>
+        <v>5228415.6500000004</v>
       </c>
       <c r="S8" s="9">
-        <v>9800256.6099999994</v>
+        <v>-61512310.289999999</v>
       </c>
       <c r="T8" s="9">
-        <v>-7557419.6399999997</v>
+        <v>-14013463.970000001</v>
       </c>
       <c r="U8" s="9">
-        <v>14550062.539999999</v>
+        <v>-54248640.740000002</v>
       </c>
       <c r="V8" s="9">
-        <v>19253342.859999999</v>
+        <v>-9073852.6199999992</v>
       </c>
       <c r="W8" s="9">
-        <v>-341408227.17000002</v>
-      </c>
-      <c r="X8" s="9">
-        <v>-1394725650.4400001</v>
-      </c>
+        <v>-256116142.56999999</v>
+      </c>
+      <c r="X8" s="9"/>
       <c r="Y8" s="9">
-        <v>379706154.11000001</v>
+        <v>-2942876320.5</v>
       </c>
       <c r="Z8" s="9">
-        <v>733702.49</v>
-      </c>
-      <c r="AA8" s="9"/>
+        <v>1862052036.3800001</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>6252989.6600000001</v>
+      </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="5"/>
-        <v>2013</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1130921915.51</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1114568260.74</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1130138728.3299999</v>
-      </c>
-      <c r="E9" s="9">
-        <v>356475220.70999998</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98622251658165161</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.31542607272362178</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="2"/>
-        <v>356475220.70999986</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>98559602.459999993</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="4"/>
-        <v>8.7210180475489937E-2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>40771661.840000004</v>
-      </c>
+      <c r="AE8" s="9"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="9">
-        <v>5652308.1600000001</v>
-      </c>
+      <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="P9" s="9">
-        <v>-94715.38</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>7068.71</v>
-      </c>
-      <c r="R9" s="9">
-        <v>-3973172.57</v>
-      </c>
-      <c r="S9" s="9">
-        <v>13140484.83</v>
-      </c>
-      <c r="T9" s="9">
-        <v>-7753381.1100000003</v>
-      </c>
-      <c r="U9" s="9">
-        <v>-73653563.709999993</v>
-      </c>
-      <c r="V9" s="9">
-        <v>-1889610.16</v>
-      </c>
-      <c r="W9" s="9">
-        <v>-279232980.05000001</v>
-      </c>
-      <c r="X9" s="9">
-        <v>-1347014151.79</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>780768382.42999995</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>1048558.72</v>
-      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>A9-1</f>
-        <v>2012</v>
+        <f>A8-1</f>
+        <v>2014</v>
       </c>
       <c r="B10" s="9">
-        <v>700155145.04999995</v>
+        <v>1142678484.6099999</v>
       </c>
       <c r="C10" s="9">
-        <v>685819391.22000003</v>
+        <v>95314944.459999993</v>
       </c>
       <c r="D10" s="9">
-        <v>696651234.15999997</v>
+        <v>1144264528.4000001</v>
       </c>
       <c r="E10" s="9">
-        <v>481913096.22000003</v>
+        <v>-17080921.460000001</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0.98445155565817577</v>
+        <v>8.3297998054066028E-2</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>0.69175661017966272</v>
+        <v>-1.4927423717209759E-2</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="2"/>
-        <v>481913096.22000003</v>
+        <v>-17080921.460000355</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>H10-E10</f>
+        <v>-3.5390257835388184E-7</v>
       </c>
       <c r="J10" s="9">
-        <v>37947498.520000003</v>
+        <v>79357586.120000005</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>5.4471300213450272E-2</v>
+        <v>6.9352482883450015E-2</v>
       </c>
       <c r="L10" s="9">
-        <v>30712112.989999998</v>
+        <v>73180404.730000004</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9">
-        <v>5594314.6500000004</v>
-      </c>
-      <c r="O10" s="9"/>
+        <v>5835105.4800000004</v>
+      </c>
+      <c r="O10" s="9">
+        <v>743779.79</v>
+      </c>
       <c r="P10" s="9">
-        <v>161660.29</v>
+        <v>77974.710000000006</v>
       </c>
       <c r="Q10" s="9">
-        <v>10554.48</v>
+        <v>1961.16</v>
       </c>
       <c r="R10" s="9">
-        <v>1835136.12</v>
+        <v>-894483.21</v>
       </c>
       <c r="S10" s="9">
-        <v>2345972.77</v>
+        <v>9800256.6099999994</v>
       </c>
       <c r="T10" s="9">
-        <v>1027741.59</v>
+        <v>-7557419.6399999997</v>
       </c>
       <c r="U10" s="9">
-        <v>-7885473.6699999999</v>
+        <v>14550062.539999999</v>
       </c>
       <c r="V10" s="9">
-        <v>3226722.55</v>
+        <v>19253342.859999999</v>
       </c>
       <c r="W10" s="9">
-        <v>-122459236.76000001</v>
-      </c>
-      <c r="X10" s="9">
-        <v>-473740078.20999998</v>
-      </c>
+        <v>-341408227.17000002</v>
+      </c>
+      <c r="X10" s="9"/>
       <c r="Y10" s="9">
-        <v>300440204.31</v>
+        <v>-1394725650.4400001</v>
       </c>
       <c r="Z10" s="9">
-        <v>6044732.4299999997</v>
-      </c>
-      <c r="AA10" s="9"/>
+        <v>379706154.11000001</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>733702.49</v>
+      </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-    </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="5"/>
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B11" s="9">
-        <v>377983123.51999998</v>
+        <v>1130921915.51</v>
       </c>
       <c r="C11" s="9">
-        <v>366704384.82999998</v>
-      </c>
-      <c r="D11" s="9">
-        <v>375560849.13</v>
+        <v>1114568260.74</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1130138728.3299999</v>
       </c>
       <c r="E11" s="9">
-        <v>74219234.049999997</v>
+        <v>356475220.70999998</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0.97641803100478575</v>
+        <v>0.98622251658165161</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>0.19762239387287434</v>
+        <v>0.31542607272362178</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="2"/>
-        <v>74219234.049999982</v>
+        <v>356475220.70999986</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J11" s="9">
-        <v>26723209</v>
+        <v>98559602.459999993</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>7.1155470709753851E-2</v>
+        <v>8.7210180475489937E-2</v>
       </c>
       <c r="L11" s="9">
-        <v>21124733.309999999</v>
+        <v>40771661.840000004</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9">
-        <v>4946596.43</v>
+        <v>5652308.1600000001</v>
       </c>
       <c r="O11" s="9"/>
       <c r="P11" s="9">
-        <v>258214.11</v>
+        <v>-94715.38</v>
       </c>
       <c r="Q11" s="9">
-        <v>1484.38</v>
+        <v>7068.71</v>
       </c>
       <c r="R11" s="9">
-        <v>927288.22</v>
-      </c>
-      <c r="S11" s="15">
-        <v>964759.15</v>
+        <v>-3973172.57</v>
+      </c>
+      <c r="S11" s="9">
+        <v>13140484.83</v>
       </c>
       <c r="T11" s="9">
-        <v>4041974.58</v>
+        <v>-7753381.1100000003</v>
       </c>
       <c r="U11" s="9">
-        <v>-3862567.15</v>
+        <v>-73653563.709999993</v>
       </c>
       <c r="V11" s="9">
-        <v>534147.91</v>
+        <v>-1889610.16</v>
       </c>
       <c r="W11" s="9">
-        <v>-246069295.34999999</v>
-      </c>
-      <c r="X11" s="9">
-        <v>-350625396.79000002</v>
-      </c>
+        <v>-279232980.05000001</v>
+      </c>
+      <c r="X11" s="9"/>
       <c r="Y11" s="9">
-        <v>215155549.16</v>
+        <v>-1347014151.79</v>
       </c>
       <c r="Z11" s="9">
-        <v>24537687.960000001</v>
-      </c>
-      <c r="AA11" s="9"/>
+        <v>780768382.42999995</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1048558.72</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <f t="shared" si="5"/>
-        <v>2010</v>
-      </c>
-      <c r="B12" s="9">
-        <v>260294585.96000001</v>
-      </c>
-      <c r="C12" s="9">
-        <v>253337502.41</v>
-      </c>
-      <c r="D12" s="9">
-        <v>259631611.78999999</v>
-      </c>
-      <c r="E12" s="9">
-        <v>123564361.27</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.97575753839601431</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.47592186644029921</v>
-      </c>
-      <c r="H12" s="9">
-        <f t="shared" si="2"/>
-        <v>123564361.26999997</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>11339203.859999999</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="4"/>
-        <v>4.367420354487335E-2</v>
-      </c>
-      <c r="L12" s="9">
-        <v>14528799.33</v>
-      </c>
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="9">
-        <v>4372512.25</v>
-      </c>
+      <c r="N12" s="9"/>
       <c r="O12" s="9"/>
-      <c r="P12" s="9">
-        <v>172138.23</v>
-      </c>
+      <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="9">
-        <v>-271728.21000000002</v>
-      </c>
-      <c r="S12" s="9">
-        <v>234046.07999999999</v>
-      </c>
-      <c r="T12" s="9">
-        <v>3317.31</v>
-      </c>
-      <c r="U12" s="9">
-        <v>-2501141.31</v>
-      </c>
-      <c r="V12" s="9">
-        <v>3309697.51</v>
-      </c>
-      <c r="W12" s="9">
-        <v>-140493478.87</v>
-      </c>
-      <c r="X12" s="9">
-        <v>-257639402.69999999</v>
-      </c>
-      <c r="Y12" s="9">
-        <v>205580163.41999999</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>25298622.579999998</v>
-      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>77</v>
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>A11-1</f>
+        <v>2012</v>
       </c>
       <c r="B13" s="9">
-        <f>SUM(B4:B12)</f>
-        <v>77992656914.470001</v>
+        <v>700155145.04999995</v>
       </c>
       <c r="C13" s="9">
-        <f>SUM(C4:C12)</f>
-        <v>74945056425.460022</v>
+        <v>685819391.22000003</v>
       </c>
       <c r="D13" s="9">
-        <f>SUM(D4:D12)</f>
-        <v>108796745750.01999</v>
+        <v>696651234.15999997</v>
       </c>
       <c r="E13" s="9">
-        <f>SUM(E4:E12)</f>
-        <v>-31455050079.009998</v>
+        <v>481913096.22000003</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0.68885384308883391</v>
+        <v>0.98445155565817577</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>-0.28911756378525888</v>
+        <v>0.69175661017966272</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="2"/>
-        <v>-19493200079.010067</v>
+        <v>481913096.22000003</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="3"/>
-        <v>11961849999.999931</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" ref="J13:Y13" si="6">SUM(J4:J12)</f>
-        <v>18090744108.869999</v>
+        <v>37947498.520000003</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>0.16628019509367242</v>
+        <v>5.4471300213450272E-2</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="6"/>
-        <v>12718688104.179998</v>
-      </c>
-      <c r="M13" s="9">
-        <f>SUM(M4:M12)</f>
-        <v>2706971000</v>
-      </c>
+        <v>30712112.989999998</v>
+      </c>
+      <c r="M13" s="9"/>
       <c r="N13" s="9">
-        <f t="shared" si="6"/>
-        <v>1060537619.9899999</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="6"/>
-        <v>336823018.37</v>
-      </c>
+        <v>5594314.6500000004</v>
+      </c>
+      <c r="O13" s="9"/>
       <c r="P13" s="9">
-        <f t="shared" si="6"/>
-        <v>-219854914.25</v>
+        <v>161660.29</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="6"/>
-        <v>21068.73</v>
+        <v>10554.48</v>
       </c>
       <c r="R13" s="9">
-        <f>SUM(R4:R12)</f>
-        <v>829830999.99999988</v>
+        <v>1835136.12</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="6"/>
-        <v>20869389462.640007</v>
+        <v>2345972.77</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="6"/>
-        <v>-10285028003.73</v>
+        <v>1027741.59</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="6"/>
-        <v>-4350765356.25</v>
+        <v>-7885473.6699999999</v>
       </c>
       <c r="V13" s="9">
-        <f>SUM(V4:V12)</f>
-        <v>-2210851553.9499993</v>
+        <v>3226722.55</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="6"/>
-        <v>-153761104627.68002</v>
-      </c>
-      <c r="X13" s="9">
-        <f t="shared" si="6"/>
-        <v>-197019835091.17001</v>
-      </c>
+        <v>-122459236.76000001</v>
+      </c>
+      <c r="X13" s="9"/>
       <c r="Y13" s="9">
-        <f t="shared" si="6"/>
-        <v>176427291714.13</v>
+        <v>-473740078.20999998</v>
       </c>
       <c r="Z13" s="9">
-        <f>SUM(Z4:Z12)</f>
-        <v>6517196621.0900002</v>
-      </c>
-      <c r="AA13" s="9"/>
+        <v>300440204.31</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>6044732.4299999997</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="B14" s="9">
+        <v>377983123.51999998</v>
+      </c>
+      <c r="C14" s="9">
+        <v>366704384.82999998</v>
+      </c>
+      <c r="D14" s="9">
+        <v>375560849.13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>74219234.049999997</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97641803100478575</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19762239387287434</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>74219234.049999982</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>26723209</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>7.1155470709753851E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>21124733.309999999</v>
+      </c>
       <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="N14" s="9">
+        <v>4946596.43</v>
+      </c>
       <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
+      <c r="P14" s="9">
+        <v>258214.11</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>1484.38</v>
+      </c>
+      <c r="R14" s="9">
+        <v>927288.22</v>
+      </c>
+      <c r="S14" s="15">
+        <v>964759.15</v>
+      </c>
+      <c r="T14" s="9">
+        <v>4041974.58</v>
+      </c>
+      <c r="U14" s="9">
+        <v>-3862567.15</v>
+      </c>
+      <c r="V14" s="9">
+        <v>534147.91</v>
+      </c>
+      <c r="W14" s="9">
+        <v>-246069295.34999999</v>
+      </c>
       <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
+      <c r="Y14" s="9">
+        <v>-350625396.79000002</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>215155549.16</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>24537687.960000001</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -6240,7 +6145,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -6251,86 +6156,220 @@
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
-    </row>
-    <row r="16" spans="1:30" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>A14-1</f>
+        <v>2010</v>
+      </c>
+      <c r="B16" s="9">
+        <v>260294585.96000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>253337502.41</v>
+      </c>
+      <c r="D16" s="9">
+        <v>259631611.78999999</v>
+      </c>
+      <c r="E16" s="9">
+        <v>123564361.27</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.97575753839601431</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.47592186644029921</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="2"/>
+        <v>123564361.26999997</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>11339203.859999999</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="4"/>
+        <v>4.367420354487335E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>14528799.33</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9">
+        <v>4372512.25</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9">
+        <v>172138.23</v>
+      </c>
       <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
+      <c r="R16" s="9">
+        <v>-271728.21000000002</v>
+      </c>
+      <c r="S16" s="9">
+        <v>234046.07999999999</v>
+      </c>
+      <c r="T16" s="9">
+        <v>3317.31</v>
+      </c>
+      <c r="U16" s="9">
+        <v>-2501141.31</v>
+      </c>
+      <c r="V16" s="9">
+        <v>3309697.51</v>
+      </c>
+      <c r="W16" s="9">
+        <v>-140493478.87</v>
+      </c>
       <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+      <c r="Y16" s="9">
+        <v>-257639402.69999999</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>205580163.41999999</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>25298622.579999998</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="9">
+        <f>SUM(B4:B16)</f>
+        <v>77992656914.470001</v>
+      </c>
+      <c r="C17" s="9">
+        <f>SUM(C4:C16)</f>
+        <v>74945056425.460022</v>
+      </c>
+      <c r="D17" s="9">
+        <f>SUM(D4:D16)</f>
+        <v>108796745750.01999</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SUM(E4:E16)</f>
+        <v>-31455050079.009998</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.68885384308883391</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.28911756378525888</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>-31455050079.010067</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.866455078125E-5</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" ref="J17:Z17" si="6">SUM(J4:J16)</f>
+        <v>18090744108.869999</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.16628019509367242</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="6"/>
+        <v>12718688104.179998</v>
+      </c>
+      <c r="M17" s="9">
+        <f>SUM(M4:M16)</f>
+        <v>2706971000</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="6"/>
+        <v>1060537619.9899999</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="6"/>
+        <v>336823018.37</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="6"/>
+        <v>-219854914.25</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="6"/>
+        <v>21068.73</v>
+      </c>
+      <c r="R17" s="9">
+        <f>SUM(R4:R16)</f>
+        <v>829830999.99999988</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="6"/>
+        <v>20869389462.640007</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="6"/>
+        <v>-10285028003.73</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="6"/>
+        <v>-4350765356.25</v>
+      </c>
+      <c r="V17" s="9">
+        <f>SUM(V4:V16)</f>
+        <v>-2210851553.9499993</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="6"/>
+        <v>-153761104627.68002</v>
+      </c>
+      <c r="X17" s="9">
+        <f>SUM(X4:X16)</f>
+        <v>-5650376000</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="6"/>
+        <v>-197019835091.17001</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="6"/>
+        <v>176427291714.13</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>SUM(AA4:AA16)</f>
+        <v>205722621.09000003</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -6346,10 +6385,140 @@
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+    </row>
+    <row r="20" spans="1:31" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:O16"/>
+    <mergeCell ref="A20:O20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/601668_中国建筑/中国建筑.xlsx
+++ b/601668_中国建筑/中国建筑.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/external/git/stock_learn/601668_中国建筑/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="5820" windowWidth="25605" windowHeight="14775" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +19,20 @@
     <sheet name="应收" sheetId="7" r:id="rId5"/>
     <sheet name="存货" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>年份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1217,17 +1222,80 @@
     <t>现金流折扣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>总股本</t>
+    <rPh sb="0" eb="1">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gu'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标价格</t>
+    <rPh sb="0" eb="1">
+      <t>mu'biao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'ge</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期涨幅</t>
+    <rPh sb="0" eb="1">
+      <t>yu'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang'fu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近5年复合增长</t>
+    <rPh sb="0" eb="1">
+      <t>jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fu'he</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1326,6 +1394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1612,24 +1681,24 @@
       <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="22.125" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -1706,7 +1775,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -1751,7 +1820,7 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -1778,7 +1847,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -1805,7 +1874,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1832,7 +1901,7 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -1859,7 +1928,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -1886,7 +1955,7 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2011</v>
       </c>
@@ -1913,7 +1982,7 @@
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -1940,7 +2009,7 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -1967,12 +2036,12 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2007,7 +2076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -2052,7 +2121,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2097,7 +2166,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2126,7 +2195,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2155,7 +2224,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2184,7 +2253,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2213,7 +2282,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2242,7 +2311,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2271,7 +2340,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2300,7 +2369,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2329,7 +2398,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="e">
         <f t="shared" si="0"/>
@@ -2358,7 +2427,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -2370,19 +2439,19 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2417,7 +2486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -2460,7 +2529,7 @@
         <v>0.2237952540728636</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2017</v>
       </c>
@@ -2503,7 +2572,7 @@
         <v>0.19560853164378683</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2530,7 +2599,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2557,7 +2626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2584,7 +2653,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2611,7 +2680,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2638,7 +2707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2665,7 +2734,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2692,7 +2761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2719,7 +2788,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="e">
         <f t="shared" si="4"/>
@@ -2746,7 +2815,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -2758,13 +2827,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -2831,7 +2900,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -2869,7 +2938,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2893,7 +2962,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2917,7 +2986,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2941,7 +3010,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2965,7 +3034,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="e">
         <f t="shared" si="8"/>
@@ -2989,7 +3058,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3013,7 +3082,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3037,7 +3106,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3061,7 +3130,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="e">
         <f t="shared" si="8"/>
@@ -3085,7 +3154,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3094,7 +3163,7 @@
       <c r="G61" s="2"/>
       <c r="N61" s="2"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -3178,7 +3247,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1">
+    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2017</v>
       </c>
@@ -3224,7 +3293,7 @@
         <v>0.40808155288517173</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="e">
         <f t="shared" ref="C68:C77" ca="1" si="14">F68+I68+L68+N68</f>
@@ -3255,7 +3324,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3286,7 +3355,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3317,7 +3386,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3348,7 +3417,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3379,7 +3448,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3410,7 +3479,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3441,7 +3510,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3472,7 +3541,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -3503,7 +3572,7 @@
         <v>0.31730634399459795</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -3513,12 +3582,12 @@
       <c r="M77" s="1"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3553,7 +3622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2018</v>
       </c>
@@ -3596,7 +3665,7 @@
       <c r="O82" s="4"/>
       <c r="P82" s="2"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <f>A82-1</f>
         <v>2017</v>
@@ -3640,7 +3709,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="2"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" ref="A84:A90" si="19">A83-1</f>
         <v>2016</v>
@@ -3683,7 +3752,7 @@
       <c r="N84" s="2"/>
       <c r="P84" s="2"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="19"/>
         <v>2015</v>
@@ -3726,7 +3795,7 @@
       <c r="N85" s="2"/>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="19"/>
         <v>2014</v>
@@ -3769,7 +3838,7 @@
       <c r="N86" s="2"/>
       <c r="P86" s="2"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="19"/>
         <v>2013</v>
@@ -3812,7 +3881,7 @@
       <c r="N87" s="2"/>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="19"/>
         <v>2012</v>
@@ -3855,7 +3924,7 @@
       <c r="N88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="19"/>
         <v>2011</v>
@@ -3898,7 +3967,7 @@
       <c r="N89" s="2"/>
       <c r="P89" s="2"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="19"/>
         <v>2010</v>
@@ -3941,7 +4010,7 @@
       <c r="N90" s="2"/>
       <c r="P90" s="2"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3957,7 +4026,7 @@
       <c r="N91" s="2"/>
       <c r="P91" s="2"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3973,22 +4042,22 @@
       <c r="N92" s="2"/>
       <c r="P92" s="2"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F93" s="5"/>
       <c r="G93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -4020,7 +4089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2018</v>
       </c>
@@ -4058,7 +4127,7 @@
         <v>-169370763.40999997</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2017</v>
       </c>
@@ -4096,7 +4165,7 @@
         <v>233455309.41999996</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1">
         <f t="shared" ref="C101:C109" si="23">F101+I101+L101+N101</f>
@@ -4122,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1">
         <f t="shared" si="23"/>
@@ -4148,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1">
         <f t="shared" si="23"/>
@@ -4174,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1">
         <f t="shared" si="23"/>
@@ -4200,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1">
         <f t="shared" si="23"/>
@@ -4226,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1">
         <f t="shared" si="23"/>
@@ -4252,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1">
         <f t="shared" si="23"/>
@@ -4278,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1">
         <f t="shared" si="23"/>
@@ -4304,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="e">
         <f t="shared" si="23"/>
@@ -4324,13 +4393,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
@@ -4349,12 +4418,12 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -4365,7 +4434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -4385,7 +4454,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4405,7 +4474,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -4425,7 +4494,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -4445,7 +4514,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -4465,7 +4534,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4480,7 +4549,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4495,7 +4564,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4510,7 +4579,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4525,7 +4594,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4540,7 +4609,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4555,7 +4624,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4570,7 +4639,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4585,7 +4654,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4600,7 +4669,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -4615,7 +4684,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -4630,7 +4699,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -4645,7 +4714,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -4660,7 +4729,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -4675,7 +4744,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -4690,7 +4759,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -4705,7 +4774,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -4720,7 +4789,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -4735,7 +4804,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -4750,7 +4819,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -4765,7 +4834,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -4780,7 +4849,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -4803,29 +4872,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1"/>
-    <row r="2" spans="1:11" ht="20.25">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -4860,7 +4929,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
@@ -4893,7 +4962,7 @@
         <v>38241324000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -4934,256 +5003,281 @@
         <v>0.16087539724226962</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(K3/C3)^(1/8)-1</f>
+        <v>0.1943277552743683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2">
+        <f>(K3/G3)^(1/4)-1</f>
+        <v>0.1409076679643313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2">
-        <f>SUM(D4:K4)/8</f>
-        <v>0.19971156158221287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="17">
-        <f>K3*F8</f>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <f>K3*F9</f>
         <v>19120662000</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B9" s="16">
         <v>0.05</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <v>0.12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="16">
         <v>0.7</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="18">
         <v>0.18</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C11" s="18">
         <v>0.18</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D11" s="18">
         <v>0.18</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E11" s="18">
         <v>0.18</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F11" s="18">
         <v>0.18</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="16" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="16">
-        <v>2019</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2020</v>
-      </c>
-      <c r="D11" s="16">
-        <v>2021</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2022</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2023</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="16" t="s">
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="19">
-        <f>A8*(1+D8)</f>
+      <c r="B13" s="19">
+        <f>A9*(1+D9)</f>
         <v>21415141440.000004</v>
       </c>
-      <c r="C12" s="19">
-        <f>B12*(1+D8)</f>
+      <c r="C13" s="19">
+        <f>B13*(1+D9)</f>
         <v>23984958412.800007</v>
       </c>
-      <c r="D12" s="19">
-        <f>C12*(1+D8)</f>
+      <c r="D13" s="19">
+        <f>C13*(1+D9)</f>
         <v>26863153422.33601</v>
       </c>
-      <c r="E12" s="19">
-        <f>D12*(1+D8)</f>
+      <c r="E13" s="19">
+        <f>D13*(1+D9)</f>
         <v>30086731833.016335</v>
       </c>
-      <c r="F12" s="19">
-        <f>E12*(1+D8)</f>
+      <c r="F13" s="19">
+        <f>E13*(1+D9)</f>
         <v>33697139652.978298</v>
       </c>
-      <c r="G12" s="19">
-        <f>F12*C8</f>
+      <c r="G13" s="19">
+        <f>F13*C9</f>
         <v>202182837917.86978</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="16" t="s">
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="17">
-        <f>B12/(1+B8)</f>
+      <c r="B14" s="17">
+        <f>B13/(1+B9)</f>
         <v>20395372800.000004</v>
       </c>
-      <c r="C13" s="17">
-        <f>C12/(1+B8)^2</f>
+      <c r="C14" s="17">
+        <f>C13/(1+B9)^2</f>
         <v>21755064320.000004</v>
       </c>
-      <c r="D13" s="17">
-        <f>D12/(1+B8)^3</f>
+      <c r="D14" s="17">
+        <f>D13/(1+B9)^3</f>
         <v>23205401941.33334</v>
       </c>
-      <c r="E13" s="17">
-        <f>E12/(1+B8)^4</f>
+      <c r="E14" s="17">
+        <f>E13/(1+B9)^4</f>
         <v>24752428737.422234</v>
       </c>
-      <c r="F13" s="17">
-        <f>F12/(1+B8)^5</f>
+      <c r="F14" s="17">
+        <f>F13/(1+B9)^5</f>
         <v>26402590653.250381</v>
       </c>
-      <c r="G13" s="17">
-        <f>G12/(1+B8)^4</f>
+      <c r="G14" s="17">
+        <f>G13/(1+B9)^4</f>
         <v>166336321115.47742</v>
       </c>
-      <c r="H13" s="17">
-        <f>SUM(B13:G13)</f>
+      <c r="H14" s="17">
+        <f>SUM(B14:G14)</f>
         <v>282847179567.4834</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="I14" s="22">
+        <v>41985174000</v>
+      </c>
+      <c r="J14">
+        <f>H14/I14</f>
+        <v>6.7368347590385929</v>
+      </c>
+      <c r="K14">
+        <v>5.8860000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <f>J14/K14</f>
+        <v>1.1445522866188571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="17">
-        <f>H13*E8</f>
+      <c r="H15" s="17">
+        <f>H14*E9</f>
         <v>197993025697.23837</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>2018</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>38241324000</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="J15">
-        <f>J14-1</f>
-        <v>2017</v>
-      </c>
-      <c r="K15" s="9">
-        <v>32941799000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J16">
         <f>J15-1</f>
+        <v>2017</v>
+      </c>
+      <c r="K16" s="9">
+        <v>32941799000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <f>J16-1</f>
         <v>2016</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>29870104000</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
-      <c r="J17">
-        <f t="shared" ref="J17:J21" si="1">J16-1</f>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <f t="shared" ref="J18:J22" si="1">J17-1</f>
         <v>2015</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>26061898000</v>
       </c>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18">
-        <f>J17-1</f>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <f>J18-1</f>
         <v>2014</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>22569967000</v>
       </c>
     </row>
-    <row r="19" spans="10:11">
-      <c r="J19">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>20398512000</v>
       </c>
     </row>
-    <row r="20" spans="10:11">
-      <c r="J20">
-        <f>J19-1</f>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <f>J20-1</f>
         <v>2012</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>15735236000</v>
       </c>
     </row>
-    <row r="21" spans="10:11">
-      <c r="J21">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>13644276000</v>
       </c>
     </row>
-    <row r="22" spans="10:11">
-      <c r="J22">
-        <f>J21-1</f>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <f>J22-1</f>
         <v>2010</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>9237293000</v>
       </c>
     </row>
@@ -5201,31 +5295,31 @@
       <selection activeCell="A4" sqref="A4:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1"/>
-    <col min="11" max="11" width="16.625" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="22" width="17.875" customWidth="1"/>
-    <col min="23" max="24" width="18.875" customWidth="1"/>
-    <col min="25" max="25" width="17.875" customWidth="1"/>
-    <col min="26" max="26" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.625" customWidth="1"/>
-    <col min="31" max="31" width="18.125" customWidth="1"/>
+    <col min="15" max="22" width="17.83203125" customWidth="1"/>
+    <col min="23" max="24" width="18.83203125" customWidth="1"/>
+    <col min="25" max="25" width="17.83203125" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="J2" t="s">
         <v>82</v>
       </c>
@@ -5239,7 +5333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5322,7 +5416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -5412,7 +5506,7 @@
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -5503,7 +5597,7 @@
       <c r="AD5" s="9"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>A5-1</f>
         <v>2016</v>
@@ -5594,7 +5688,7 @@
       <c r="AD6" s="9"/>
       <c r="AE6" s="9"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" ref="A7:A11" si="5">A6-1</f>
         <v>2015</v>
@@ -5685,7 +5779,7 @@
       <c r="AD7" s="9"/>
       <c r="AE7" s="9"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>A7-1</f>
         <v>2014</v>
@@ -5776,7 +5870,7 @@
       <c r="AD8" s="9"/>
       <c r="AE8" s="9"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>2013</v>
@@ -5867,7 +5961,7 @@
       <c r="AD9" s="9"/>
       <c r="AE9" s="9"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>A9-1</f>
         <v>2012</v>
@@ -5958,7 +6052,7 @@
       <c r="AD10" s="9"/>
       <c r="AE10" s="9"/>
     </row>
-    <row r="11" spans="1:31" ht="15.75">
+    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="5"/>
         <v>2011</v>
@@ -6049,7 +6143,7 @@
       <c r="AD11" s="9"/>
       <c r="AE11" s="9"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>A11-1</f>
         <v>2010</v>
@@ -6138,7 +6232,7 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6183,67 +6277,67 @@
         <v>0.12574009072583028</v>
       </c>
       <c r="L13" s="9">
-        <f>SUM(L4:L12)</f>
+        <f t="shared" ref="L13:AA13" si="6">SUM(L4:L12)</f>
         <v>38947002000</v>
       </c>
       <c r="M13" s="9">
-        <f>SUM(M4:M12)</f>
+        <f t="shared" si="6"/>
         <v>5455457000</v>
       </c>
       <c r="N13" s="9">
-        <f>SUM(N4:N12)</f>
+        <f t="shared" si="6"/>
         <v>2840705000</v>
       </c>
       <c r="O13" s="9">
-        <f>SUM(O4:O12)</f>
+        <f t="shared" si="6"/>
         <v>1944750000</v>
       </c>
       <c r="P13" s="9">
-        <f>SUM(P4:P12)</f>
+        <f t="shared" si="6"/>
         <v>-1220510000</v>
       </c>
       <c r="Q13" s="9">
-        <f>SUM(Q4:Q12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="9">
-        <f>SUM(R4:R12)</f>
+        <f t="shared" si="6"/>
         <v>922230000</v>
       </c>
       <c r="S13" s="9">
-        <f>SUM(S4:S12)</f>
+        <f t="shared" si="6"/>
         <v>66547570000</v>
       </c>
       <c r="T13" s="9">
-        <f>SUM(T4:T12)</f>
+        <f t="shared" si="6"/>
         <v>-32313327000</v>
       </c>
       <c r="U13" s="9">
-        <f>SUM(U4:U12)</f>
+        <f t="shared" si="6"/>
         <v>-11911841000</v>
       </c>
       <c r="V13" s="9">
-        <f>SUM(V4:V12)</f>
+        <f t="shared" si="6"/>
         <v>-4375274000</v>
       </c>
       <c r="W13" s="9">
-        <f>SUM(W4:W12)</f>
+        <f t="shared" si="6"/>
         <v>-381575176000</v>
       </c>
       <c r="X13" s="9">
-        <f>SUM(X4:X12)</f>
+        <f t="shared" si="6"/>
         <v>-14791494000</v>
       </c>
       <c r="Y13" s="9">
-        <f>SUM(Y4:Y12)</f>
+        <f t="shared" si="6"/>
         <v>-563485671000</v>
       </c>
       <c r="Z13" s="9">
-        <f>SUM(Z4:Z12)</f>
+        <f t="shared" si="6"/>
         <v>707807198000</v>
       </c>
       <c r="AA13" s="9">
-        <f>SUM(AA4:AA12)</f>
+        <f t="shared" si="6"/>
         <v>-787968000</v>
       </c>
       <c r="AB13" s="9"/>
@@ -6251,7 +6345,7 @@
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -6282,7 +6376,7 @@
       <c r="AD14" s="9"/>
       <c r="AE14" s="9"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -6312,7 +6406,7 @@
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
     </row>
-    <row r="16" spans="1:31" ht="170.1" customHeight="1">
+    <row r="16" spans="1:31" ht="170" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>119</v>
       </c>
@@ -6346,7 +6440,7 @@
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6378,7 +6472,7 @@
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6428,7 +6522,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6443,16 +6537,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" customWidth="1"/>
+    <col min="2" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="33.950000000000003" customHeight="1">
+    <row r="3" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -6490,7 +6584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -6530,7 +6624,7 @@
         <v>1179835774.04</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>A4-1</f>
         <v>2017</v>
@@ -6571,7 +6665,7 @@
         <v>982816157.38</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" ref="A6:A12" si="2">A5-1</f>
         <v>2016</v>
@@ -6585,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -6599,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -6613,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -6627,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -6641,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -6667,7 +6761,7 @@
         <v>145953013.31</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -6687,7 +6781,7 @@
         <v>69577424.079999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="L13" s="4"/>
     </row>
